--- a/tl/S00028.MES.BIN.xlsx
+++ b/tl/S00028.MES.BIN.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC728B09-8703-4F49-AF62-373ABEC706CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDD29BB-BACF-4A05-9CE9-17CC4C0E4E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="11310" windowWidth="48240" windowHeight="19545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,9 +245,6 @@
     <t>57</t>
   </si>
   <si>
-    <t>Even though we're on good terms,&lt;pause&gt;</t>
-  </si>
-  <si>
     <t>59</t>
   </si>
   <si>
@@ -813,6 +810,9 @@
   </si>
   <si>
     <t>251</t>
+  </si>
+  <si>
+    <t>Even though we're on good terms,</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1221,7 @@
   <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2180,7 +2180,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>9</v>
@@ -2197,22 +2197,22 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>9</v>
@@ -2229,25 +2229,25 @@
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>9</v>
@@ -2261,22 +2261,22 @@
         <v>9</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>9</v>
@@ -2293,22 +2293,22 @@
         <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>9</v>
@@ -2325,22 +2325,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>9</v>
@@ -2357,22 +2357,22 @@
         <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>9</v>
@@ -2389,22 +2389,22 @@
         <v>9</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>9</v>
@@ -2421,7 +2421,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>70</v>
@@ -2436,7 +2436,7 @@
         <v>9</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>9</v>
@@ -2453,7 +2453,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>70</v>
@@ -2468,7 +2468,7 @@
         <v>9</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>9</v>
@@ -2485,22 +2485,22 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>9</v>
@@ -2517,7 +2517,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>10</v>
@@ -2532,10 +2532,10 @@
         <v>9</v>
       </c>
       <c r="G41" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>9</v>
@@ -2549,7 +2549,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>70</v>
@@ -2564,7 +2564,7 @@
         <v>9</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>9</v>
@@ -2581,22 +2581,22 @@
         <v>9</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>9</v>
@@ -2613,22 +2613,22 @@
         <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>9</v>
@@ -2645,7 +2645,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>70</v>
@@ -2660,7 +2660,7 @@
         <v>9</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>9</v>
@@ -2677,7 +2677,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>10</v>
@@ -2692,10 +2692,10 @@
         <v>9</v>
       </c>
       <c r="G46" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>9</v>
@@ -2709,7 +2709,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>22</v>
@@ -2724,7 +2724,7 @@
         <v>9</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>9</v>
@@ -2741,22 +2741,22 @@
         <v>9</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>9</v>
@@ -2773,7 +2773,7 @@
         <v>9</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>70</v>
@@ -2788,7 +2788,7 @@
         <v>9</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>9</v>
@@ -2805,22 +2805,22 @@
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>9</v>
@@ -2837,7 +2837,7 @@
         <v>9</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>22</v>
@@ -2852,7 +2852,7 @@
         <v>9</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>9</v>
@@ -2869,7 +2869,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
@@ -2884,7 +2884,7 @@
         <v>9</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>9</v>
@@ -2901,22 +2901,22 @@
         <v>9</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>9</v>
@@ -2933,22 +2933,22 @@
         <v>9</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>9</v>
@@ -2965,22 +2965,22 @@
         <v>9</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>9</v>
@@ -2997,22 +2997,22 @@
         <v>9</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>9</v>
@@ -3029,22 +3029,22 @@
         <v>9</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>9</v>
@@ -3061,22 +3061,22 @@
         <v>9</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>9</v>
@@ -3093,22 +3093,22 @@
         <v>9</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>9</v>
@@ -3125,7 +3125,7 @@
         <v>9</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>10</v>
@@ -3140,7 +3140,7 @@
         <v>9</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>9</v>
@@ -3157,22 +3157,22 @@
         <v>9</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>9</v>
@@ -3189,22 +3189,22 @@
         <v>9</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>9</v>
@@ -3221,22 +3221,22 @@
         <v>9</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>9</v>
@@ -3253,22 +3253,22 @@
         <v>9</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>9</v>
@@ -3285,22 +3285,22 @@
         <v>9</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>9</v>
@@ -3317,22 +3317,22 @@
         <v>9</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>9</v>
@@ -3349,22 +3349,22 @@
         <v>9</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>9</v>
@@ -3381,22 +3381,22 @@
         <v>9</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>9</v>
@@ -3413,22 +3413,22 @@
         <v>9</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>9</v>
@@ -3445,7 +3445,7 @@
         <v>9</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>22</v>
@@ -3460,7 +3460,7 @@
         <v>9</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>9</v>
@@ -3477,22 +3477,22 @@
         <v>9</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>9</v>
@@ -3509,7 +3509,7 @@
         <v>9</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>10</v>
@@ -3524,7 +3524,7 @@
         <v>9</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>9</v>
@@ -3541,22 +3541,22 @@
         <v>9</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>9</v>
@@ -3573,22 +3573,22 @@
         <v>9</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>9</v>
@@ -3605,22 +3605,22 @@
         <v>9</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>9</v>
@@ -3637,22 +3637,22 @@
         <v>9</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>9</v>
@@ -3669,25 +3669,25 @@
         <v>9</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" s="3" t="s">
+      <c r="H77" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>9</v>
@@ -3701,22 +3701,22 @@
         <v>9</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>9</v>
@@ -3733,22 +3733,22 @@
         <v>9</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>9</v>
@@ -3765,22 +3765,22 @@
         <v>9</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>9</v>
@@ -3797,22 +3797,22 @@
         <v>9</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>9</v>
@@ -3829,7 +3829,7 @@
         <v>9</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>10</v>
@@ -3844,7 +3844,7 @@
         <v>9</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>9</v>
@@ -3861,22 +3861,22 @@
         <v>9</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>9</v>
@@ -3893,22 +3893,22 @@
         <v>9</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>9</v>
@@ -3925,22 +3925,22 @@
         <v>9</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>9</v>
@@ -3957,25 +3957,25 @@
         <v>9</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86" s="3" t="s">
+      <c r="H86" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>9</v>
@@ -3989,22 +3989,22 @@
         <v>9</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>9</v>
@@ -4021,7 +4021,7 @@
         <v>9</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>22</v>
@@ -4036,7 +4036,7 @@
         <v>9</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>9</v>
@@ -4053,22 +4053,22 @@
         <v>9</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>9</v>
@@ -4085,22 +4085,22 @@
         <v>9</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>9</v>
@@ -4117,22 +4117,22 @@
         <v>9</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>9</v>
@@ -4149,22 +4149,22 @@
         <v>9</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>9</v>
@@ -4181,22 +4181,22 @@
         <v>9</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>9</v>
@@ -4213,22 +4213,22 @@
         <v>9</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>9</v>
@@ -4245,22 +4245,22 @@
         <v>9</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>9</v>
@@ -4277,22 +4277,22 @@
         <v>9</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>9</v>
@@ -4309,22 +4309,22 @@
         <v>9</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>9</v>
@@ -4341,22 +4341,22 @@
         <v>9</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>9</v>
@@ -4373,22 +4373,22 @@
         <v>9</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>9</v>
@@ -4405,22 +4405,22 @@
         <v>9</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>9</v>
@@ -4437,22 +4437,22 @@
         <v>9</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>9</v>
@@ -4469,7 +4469,7 @@
         <v>9</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>22</v>
@@ -4484,7 +4484,7 @@
         <v>9</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>9</v>
@@ -4501,22 +4501,22 @@
         <v>9</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>9</v>
@@ -4533,22 +4533,22 @@
         <v>9</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>9</v>
@@ -4565,22 +4565,22 @@
         <v>9</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>9</v>
@@ -4597,22 +4597,22 @@
         <v>9</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>9</v>
@@ -4629,22 +4629,22 @@
         <v>9</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>9</v>
@@ -4661,22 +4661,22 @@
         <v>9</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>9</v>
@@ -4693,22 +4693,22 @@
         <v>9</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>9</v>
@@ -4725,22 +4725,22 @@
         <v>9</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>9</v>
@@ -4757,22 +4757,22 @@
         <v>9</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>9</v>
@@ -4789,22 +4789,22 @@
         <v>9</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>9</v>
@@ -4821,22 +4821,22 @@
         <v>9</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>9</v>
@@ -4853,13 +4853,13 @@
         <v>9</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C114" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>9</v>
@@ -4885,13 +4885,13 @@
         <v>9</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C115" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>9</v>
@@ -4917,13 +4917,13 @@
         <v>9</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>9</v>
@@ -4949,7 +4949,7 @@
         <v>9</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -4981,7 +4981,7 @@
         <v>9</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -5013,7 +5013,7 @@
         <v>9</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -5045,13 +5045,13 @@
         <v>9</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>9</v>
@@ -5077,7 +5077,7 @@
         <v>9</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -5109,7 +5109,7 @@
         <v>9</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -5141,13 +5141,13 @@
         <v>9</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C123" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>9</v>
@@ -5173,13 +5173,13 @@
         <v>9</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>9</v>
@@ -5205,7 +5205,7 @@
         <v>9</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -5237,7 +5237,7 @@
         <v>9</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -5269,7 +5269,7 @@
         <v>9</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>

--- a/tl/S00028.MES.BIN.xlsx
+++ b/tl/S00028.MES.BIN.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDD29BB-BACF-4A05-9CE9-17CC4C0E4E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FE9DFF-A86A-42E2-8402-56403AFAA3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="11310" windowWidth="48240" windowHeight="19545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,6 +245,9 @@
     <t>57</t>
   </si>
   <si>
+    <t>Even though we're on good terms,&lt;pause&gt;</t>
+  </si>
+  <si>
     <t>59</t>
   </si>
   <si>
@@ -810,9 +813,6 @@
   </si>
   <si>
     <t>251</t>
-  </si>
-  <si>
-    <t>Even though we're on good terms,</t>
   </si>
 </sst>
 </file>
@@ -846,7 +846,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -869,6 +869,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDCDCDC"/>
         <bgColor rgb="FFDCDCDC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
+        <bgColor rgb="FFE6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBEBEBE"/>
+        <bgColor rgb="FFBEBEBE"/>
       </patternFill>
     </fill>
   </fills>
@@ -899,11 +911,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1221,7 +1235,7 @@
   <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,34 +1311,34 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1361,34 +1375,34 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="H5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1425,34 +1439,34 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="H7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1489,34 +1503,34 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="H9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1553,34 +1567,34 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="H11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1617,34 +1631,34 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="H13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1681,34 +1695,34 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="H15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1745,34 +1759,34 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="E17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="H17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1809,34 +1823,34 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="H19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1873,34 +1887,34 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="E21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="H21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1937,34 +1951,34 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="C23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="H23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2001,34 +2015,34 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="E25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="H25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2065,34 +2079,34 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" s="3" t="s">
+      <c r="H27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2129,34 +2143,34 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="E29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="H29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2180,7 +2194,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>9</v>
@@ -2193,34 +2207,34 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="3" t="s">
+      <c r="A31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" s="3" t="s">
+      <c r="C31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2229,7 +2243,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -2244,10 +2258,10 @@
         <v>9</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>9</v>
@@ -2257,34 +2271,34 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="3" t="s">
+      <c r="A33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J33" s="3" t="s">
+      <c r="C33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2293,7 +2307,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -2308,7 +2322,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>9</v>
@@ -2321,34 +2335,34 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="3" t="s">
+      <c r="A35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J35" s="3" t="s">
+      <c r="C35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2357,7 +2371,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -2372,7 +2386,7 @@
         <v>9</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>9</v>
@@ -2385,34 +2399,34 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="A37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J37" s="3" t="s">
+      <c r="C37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2421,7 +2435,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>70</v>
@@ -2436,7 +2450,7 @@
         <v>9</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>9</v>
@@ -2449,34 +2463,34 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="A39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J39" s="3" t="s">
+      <c r="E39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2485,7 +2499,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -2500,7 +2514,7 @@
         <v>9</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>9</v>
@@ -2513,34 +2527,34 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="A41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H41" s="3" t="s">
+      <c r="E41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J41" s="3" t="s">
+      <c r="H41" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2549,7 +2563,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>70</v>
@@ -2564,7 +2578,7 @@
         <v>9</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>9</v>
@@ -2577,34 +2591,34 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="3" t="s">
+      <c r="A43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J43" s="3" t="s">
+      <c r="C43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2613,7 +2627,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -2628,7 +2642,7 @@
         <v>9</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>9</v>
@@ -2641,34 +2655,34 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="A45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J45" s="3" t="s">
+      <c r="E45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2677,7 +2691,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>10</v>
@@ -2692,10 +2706,10 @@
         <v>9</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>9</v>
@@ -2705,34 +2719,34 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="A47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J47" s="3" t="s">
+      <c r="E47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2741,7 +2755,7 @@
         <v>9</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -2756,7 +2770,7 @@
         <v>9</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>9</v>
@@ -2769,34 +2783,34 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="A49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J49" s="3" t="s">
+      <c r="E49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2805,7 +2819,7 @@
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
@@ -2820,7 +2834,7 @@
         <v>9</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>9</v>
@@ -2833,34 +2847,34 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="A51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J51" s="3" t="s">
+      <c r="E51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J51" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2869,7 +2883,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
@@ -2884,7 +2898,7 @@
         <v>9</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>9</v>
@@ -2897,34 +2911,34 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="3" t="s">
+      <c r="A53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J53" s="3" t="s">
+      <c r="C53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J53" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2933,7 +2947,7 @@
         <v>9</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
@@ -2948,7 +2962,7 @@
         <v>9</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>9</v>
@@ -2961,34 +2975,34 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="3" t="s">
+      <c r="A55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J55" s="3" t="s">
+      <c r="C55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2997,7 +3011,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
@@ -3012,7 +3026,7 @@
         <v>9</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>9</v>
@@ -3025,34 +3039,34 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="3" t="s">
+      <c r="A57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J57" s="3" t="s">
+      <c r="C57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J57" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3061,7 +3075,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -3076,7 +3090,7 @@
         <v>9</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>9</v>
@@ -3089,34 +3103,34 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="3" t="s">
+      <c r="A59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J59" s="3" t="s">
+      <c r="C59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J59" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3125,7 +3139,7 @@
         <v>9</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>10</v>
@@ -3140,7 +3154,7 @@
         <v>9</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>9</v>
@@ -3153,34 +3167,34 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="3" t="s">
+      <c r="A61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J61" s="3" t="s">
+      <c r="C61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J61" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3189,7 +3203,7 @@
         <v>9</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
@@ -3204,7 +3218,7 @@
         <v>9</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>9</v>
@@ -3217,34 +3231,34 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="3" t="s">
+      <c r="A63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="H63" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J63" s="3" t="s">
+      <c r="C63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3253,13 +3267,13 @@
         <v>9</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>9</v>
@@ -3268,7 +3282,7 @@
         <v>9</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>9</v>
@@ -3281,34 +3295,34 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G65" s="3" t="s">
+      <c r="A65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J65" s="3" t="s">
+      <c r="C65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J65" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3317,7 +3331,7 @@
         <v>9</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -3332,7 +3346,7 @@
         <v>9</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>9</v>
@@ -3345,34 +3359,34 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="3" t="s">
+      <c r="A67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J67" s="3" t="s">
+      <c r="C67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J67" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3381,7 +3395,7 @@
         <v>9</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -3396,7 +3410,7 @@
         <v>9</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>9</v>
@@ -3409,34 +3423,34 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="A69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="3" t="s">
+      <c r="C69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="H69" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J69" s="3" t="s">
+      <c r="E69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J69" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3445,7 +3459,7 @@
         <v>9</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>22</v>
@@ -3460,7 +3474,7 @@
         <v>9</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>9</v>
@@ -3473,34 +3487,34 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="3" t="s">
+      <c r="A71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="H71" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J71" s="3" t="s">
+      <c r="C71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J71" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3509,7 +3523,7 @@
         <v>9</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>10</v>
@@ -3524,7 +3538,7 @@
         <v>9</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>9</v>
@@ -3537,34 +3551,34 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G73" s="3" t="s">
+      <c r="A73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H73" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J73" s="3" t="s">
+      <c r="C73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J73" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3573,7 +3587,7 @@
         <v>9</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -3588,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>9</v>
@@ -3601,34 +3615,34 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" s="3" t="s">
+      <c r="A75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H75" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J75" s="3" t="s">
+      <c r="C75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J75" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3637,7 +3651,7 @@
         <v>9</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -3652,7 +3666,7 @@
         <v>9</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>9</v>
@@ -3665,34 +3679,34 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" s="3" t="s">
+      <c r="A77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="C77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="I77" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J77" s="3" t="s">
+      <c r="H77" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J77" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3701,7 +3715,7 @@
         <v>9</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -3716,7 +3730,7 @@
         <v>9</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>9</v>
@@ -3729,34 +3743,34 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" s="3" t="s">
+      <c r="A79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="H79" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J79" s="3" t="s">
+      <c r="C79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J79" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3765,13 +3779,13 @@
         <v>9</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>9</v>
@@ -3780,7 +3794,7 @@
         <v>9</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>9</v>
@@ -3793,34 +3807,34 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G81" s="3" t="s">
+      <c r="A81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J81" s="3" t="s">
+      <c r="C81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J81" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3829,7 +3843,7 @@
         <v>9</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>10</v>
@@ -3844,7 +3858,7 @@
         <v>9</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>9</v>
@@ -3857,34 +3871,34 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" s="3" t="s">
+      <c r="A83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J83" s="3" t="s">
+      <c r="C83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J83" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3893,7 +3907,7 @@
         <v>9</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -3908,7 +3922,7 @@
         <v>9</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>9</v>
@@ -3921,34 +3935,34 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C85" s="2" t="s">
+      <c r="A85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="C85" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G85" s="3" t="s">
+      <c r="D85" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="H85" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J85" s="3" t="s">
+      <c r="E85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J85" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3957,62 +3971,62 @@
         <v>9</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J87" s="3" t="s">
+      <c r="D87" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J87" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4021,7 +4035,7 @@
         <v>9</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>22</v>
@@ -4036,7 +4050,7 @@
         <v>9</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>9</v>
@@ -4049,34 +4063,34 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G89" s="3" t="s">
+      <c r="A89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J89" s="3" t="s">
+      <c r="C89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J89" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4085,7 +4099,7 @@
         <v>9</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -4100,7 +4114,7 @@
         <v>9</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>9</v>
@@ -4113,34 +4127,34 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G91" s="3" t="s">
+      <c r="A91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J91" s="3" t="s">
+      <c r="C91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J91" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4149,7 +4163,7 @@
         <v>9</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -4164,7 +4178,7 @@
         <v>9</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>9</v>
@@ -4177,34 +4191,34 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G93" s="3" t="s">
+      <c r="A93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="H93" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J93" s="3" t="s">
+      <c r="C93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J93" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4213,13 +4227,13 @@
         <v>9</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>9</v>
@@ -4228,7 +4242,7 @@
         <v>9</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>9</v>
@@ -4241,34 +4255,34 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G95" s="3" t="s">
+      <c r="A95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="H95" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J95" s="3" t="s">
+      <c r="C95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J95" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4277,7 +4291,7 @@
         <v>9</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -4292,7 +4306,7 @@
         <v>9</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>9</v>
@@ -4305,34 +4319,34 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G97" s="3" t="s">
+      <c r="A97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="H97" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J97" s="3" t="s">
+      <c r="C97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J97" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4341,7 +4355,7 @@
         <v>9</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -4356,7 +4370,7 @@
         <v>9</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>9</v>
@@ -4369,34 +4383,34 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G99" s="3" t="s">
+      <c r="A99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="H99" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J99" s="3" t="s">
+      <c r="C99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J99" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4405,7 +4419,7 @@
         <v>9</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -4420,7 +4434,7 @@
         <v>9</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>9</v>
@@ -4433,34 +4447,34 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G101" s="3" t="s">
+      <c r="A101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J101" s="3" t="s">
+      <c r="C101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J101" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4469,7 +4483,7 @@
         <v>9</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>22</v>
@@ -4484,7 +4498,7 @@
         <v>9</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>9</v>
@@ -4497,34 +4511,34 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="A103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J103" s="3" t="s">
+      <c r="D103" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J103" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4533,13 +4547,13 @@
         <v>9</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>9</v>
@@ -4548,7 +4562,7 @@
         <v>9</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>9</v>
@@ -4561,34 +4575,34 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G105" s="3" t="s">
+      <c r="A105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="H105" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J105" s="3" t="s">
+      <c r="C105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J105" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4597,7 +4611,7 @@
         <v>9</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -4612,7 +4626,7 @@
         <v>9</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>9</v>
@@ -4625,34 +4639,34 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G107" s="3" t="s">
+      <c r="A107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H107" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J107" s="3" t="s">
+      <c r="C107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J107" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4661,7 +4675,7 @@
         <v>9</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -4676,7 +4690,7 @@
         <v>9</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>9</v>
@@ -4689,34 +4703,34 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G109" s="3" t="s">
+      <c r="A109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="H109" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J109" s="3" t="s">
+      <c r="C109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J109" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4725,7 +4739,7 @@
         <v>9</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -4740,7 +4754,7 @@
         <v>9</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>9</v>
@@ -4753,34 +4767,34 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G111" s="3" t="s">
+      <c r="A111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="H111" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J111" s="3" t="s">
+      <c r="C111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J111" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4789,7 +4803,7 @@
         <v>9</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -4804,7 +4818,7 @@
         <v>9</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>9</v>
@@ -4817,34 +4831,34 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D113" s="2" t="s">
+      <c r="A113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J113" s="3" t="s">
+      <c r="D113" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J113" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4853,62 +4867,62 @@
         <v>9</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J115" s="3" t="s">
+      <c r="D115" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J115" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4917,13 +4931,13 @@
         <v>9</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>9</v>
@@ -4945,34 +4959,34 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J117" s="3" t="s">
+      <c r="A117" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J117" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4981,7 +4995,7 @@
         <v>9</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -5009,34 +5023,34 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J119" s="3" t="s">
+      <c r="A119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J119" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5045,13 +5059,13 @@
         <v>9</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>9</v>
@@ -5073,34 +5087,34 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J121" s="3" t="s">
+      <c r="A121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J121" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5109,7 +5123,7 @@
         <v>9</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -5137,34 +5151,34 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D123" s="2" t="s">
+      <c r="A123" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C123" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J123" s="3" t="s">
+      <c r="D123" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J123" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5173,13 +5187,13 @@
         <v>9</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>9</v>
@@ -5201,34 +5215,34 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J125" s="3" t="s">
+      <c r="A125" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I125" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J125" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5237,7 +5251,7 @@
         <v>9</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -5265,34 +5279,34 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J127" s="3" t="s">
+      <c r="A127" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J127" s="5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/tl/S00028.MES.BIN.xlsx
+++ b/tl/S00028.MES.BIN.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FE9DFF-A86A-42E2-8402-56403AFAA3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDC9643-41A7-44B1-995C-A9720AFF422C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="11310" windowWidth="48240" windowHeight="19545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="252">
   <si>
     <t>Status</t>
   </si>
@@ -215,6 +215,12 @@
     <t>49</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Haruka</t>
+  </si>
+  <si>
     <t>Good morning. Long time no see, Yuki.</t>
   </si>
   <si>
@@ -227,12 +233,6 @@
     <t>53</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Haruka</t>
-  </si>
-  <si>
     <t>The person laughing tiredly at Yuki is &lt;c4Haruka Kawashima&gt;.</t>
   </si>
   <si>
@@ -422,6 +422,9 @@
     <t>113</t>
   </si>
   <si>
+    <t>Male Voice</t>
+  </si>
+  <si>
     <t>"Oh, good morning. Ah, Yuki is here too."</t>
   </si>
   <si>
@@ -446,6 +449,9 @@
     <t>121</t>
   </si>
   <si>
+    <t>Akira</t>
+  </si>
+  <si>
     <t>"...Submitting reports again today. Ah, sit down."</t>
   </si>
   <si>
@@ -458,9 +464,6 @@
     <t>125</t>
   </si>
   <si>
-    <t>Male Voice</t>
-  </si>
-  <si>
     <t>Yuki and I sit on the chairs that Akira recommended.</t>
   </si>
   <si>
@@ -491,9 +494,6 @@
     <t>135</t>
   </si>
   <si>
-    <t>Akira</t>
-  </si>
-  <si>
     <t>In terms of being gender-neutral, he is quite similar to Haruka.</t>
   </si>
   <si>
@@ -542,6 +542,12 @@
     <t>151</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Misaki</t>
+  </si>
+  <si>
     <t>"Ah, so it was the Fujii-kun group after all. I noticed someone who looked like them while walking outside, so I came in."</t>
   </si>
   <si>
@@ -593,12 +599,6 @@
     <t>167</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Misaki</t>
-  </si>
-  <si>
     <t>Listening to everyone's requests, Akira goes to the vending machine corner.</t>
   </si>
   <si>
@@ -771,48 +771,6 @@
   </si>
   <si>
     <t>In the end, we ended up taking a break from Akira's report work and chatted away in the discussion room for a while.</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>251</t>
   </si>
 </sst>
 </file>
@@ -1232,11 +1190,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J127"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1446,10 +1402,10 @@
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
@@ -1478,10 +1434,10 @@
         <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>9</v>
@@ -1510,10 +1466,10 @@
         <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>9</v>
@@ -1542,10 +1498,10 @@
         <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>9</v>
@@ -1574,10 +1530,10 @@
         <v>34</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>9</v>
@@ -1702,10 +1658,10 @@
         <v>42</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>9</v>
@@ -1734,10 +1690,10 @@
         <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>9</v>
@@ -1766,10 +1722,10 @@
         <v>47</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>9</v>
@@ -1798,10 +1754,10 @@
         <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>9</v>
@@ -1830,10 +1786,10 @@
         <v>51</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>9</v>
@@ -1894,10 +1850,10 @@
         <v>55</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>9</v>
@@ -1958,10 +1914,10 @@
         <v>59</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>9</v>
@@ -2022,10 +1978,10 @@
         <v>63</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>9</v>
@@ -2054,10 +2010,10 @@
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>9</v>
@@ -2066,7 +2022,7 @@
         <v>9</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>9</v>
@@ -2083,13 +2039,13 @@
         <v>9</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>9</v>
@@ -2098,7 +2054,7 @@
         <v>9</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>9</v>
@@ -2115,13 +2071,13 @@
         <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>9</v>
@@ -2150,10 +2106,10 @@
         <v>73</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>9</v>
@@ -2310,10 +2266,10 @@
         <v>84</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>9</v>
@@ -2374,10 +2330,10 @@
         <v>88</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>9</v>
@@ -2406,10 +2362,10 @@
         <v>90</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>9</v>
@@ -2438,10 +2394,10 @@
         <v>92</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>9</v>
@@ -2470,10 +2426,10 @@
         <v>94</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>9</v>
@@ -2502,10 +2458,10 @@
         <v>96</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>9</v>
@@ -2566,10 +2522,10 @@
         <v>101</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>9</v>
@@ -2630,10 +2586,10 @@
         <v>105</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>9</v>
@@ -2662,10 +2618,10 @@
         <v>107</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>9</v>
@@ -2694,10 +2650,10 @@
         <v>109</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>9</v>
@@ -2726,10 +2682,10 @@
         <v>112</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>9</v>
@@ -2790,10 +2746,10 @@
         <v>116</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>9</v>
@@ -2854,10 +2810,10 @@
         <v>120</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>9</v>
@@ -2886,10 +2842,10 @@
         <v>122</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>9</v>
@@ -2950,10 +2906,10 @@
         <v>126</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>9</v>
@@ -3078,10 +3034,10 @@
         <v>134</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>9</v>
@@ -3090,7 +3046,7 @@
         <v>9</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>9</v>
@@ -3107,7 +3063,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>9</v>
@@ -3122,7 +3078,7 @@
         <v>9</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>9</v>
@@ -3139,13 +3095,13 @@
         <v>9</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>9</v>
@@ -3154,7 +3110,7 @@
         <v>9</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>9</v>
@@ -3171,7 +3127,7 @@
         <v>9</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>9</v>
@@ -3186,7 +3142,7 @@
         <v>9</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>9</v>
@@ -3203,13 +3159,13 @@
         <v>9</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>9</v>
@@ -3218,7 +3174,7 @@
         <v>9</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>9</v>
@@ -3235,13 +3191,13 @@
         <v>9</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>9</v>
@@ -3250,7 +3206,7 @@
         <v>9</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>9</v>
@@ -3267,13 +3223,13 @@
         <v>9</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>9</v>
@@ -3282,7 +3238,7 @@
         <v>9</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>9</v>
@@ -3299,13 +3255,13 @@
         <v>9</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>9</v>
@@ -3314,7 +3270,7 @@
         <v>9</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>9</v>
@@ -3331,13 +3287,13 @@
         <v>9</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>9</v>
@@ -3346,7 +3302,7 @@
         <v>9</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>9</v>
@@ -3363,7 +3319,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>9</v>
@@ -3378,7 +3334,7 @@
         <v>9</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>9</v>
@@ -3395,7 +3351,7 @@
         <v>9</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -3410,7 +3366,7 @@
         <v>9</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>9</v>
@@ -3427,13 +3383,13 @@
         <v>9</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>9</v>
@@ -3462,10 +3418,10 @@
         <v>160</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>9</v>
@@ -3497,7 +3453,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>9</v>
@@ -3526,10 +3482,10 @@
         <v>164</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>9</v>
@@ -3561,7 +3517,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>9</v>
@@ -3590,10 +3546,10 @@
         <v>168</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>9</v>
@@ -3686,10 +3642,10 @@
         <v>174</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>9</v>
@@ -3698,10 +3654,10 @@
         <v>9</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I77" s="5" t="s">
         <v>9</v>
@@ -3715,13 +3671,13 @@
         <v>9</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>9</v>
@@ -3730,7 +3686,7 @@
         <v>9</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>9</v>
@@ -3747,13 +3703,13 @@
         <v>9</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>9</v>
@@ -3762,7 +3718,7 @@
         <v>9</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>9</v>
@@ -3779,13 +3735,13 @@
         <v>9</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>9</v>
@@ -3794,7 +3750,7 @@
         <v>9</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>9</v>
@@ -3811,7 +3767,7 @@
         <v>9</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>9</v>
@@ -3826,7 +3782,7 @@
         <v>9</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>9</v>
@@ -3843,13 +3799,13 @@
         <v>9</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>9</v>
@@ -3858,7 +3814,7 @@
         <v>9</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>9</v>
@@ -3875,7 +3831,7 @@
         <v>9</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>9</v>
@@ -3890,7 +3846,7 @@
         <v>9</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>9</v>
@@ -3907,13 +3863,13 @@
         <v>9</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>9</v>
@@ -3922,7 +3878,7 @@
         <v>9</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>9</v>
@@ -3939,13 +3895,13 @@
         <v>9</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>192</v>
+        <v>9</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>9</v>
@@ -3974,10 +3930,10 @@
         <v>195</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>192</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>9</v>
@@ -4006,10 +3962,10 @@
         <v>198</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>192</v>
+        <v>9</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>9</v>
@@ -4038,10 +3994,10 @@
         <v>200</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>9</v>
@@ -4166,10 +4122,10 @@
         <v>208</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>9</v>
@@ -4198,10 +4154,10 @@
         <v>210</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>9</v>
@@ -4233,7 +4189,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>9</v>
@@ -4422,10 +4378,10 @@
         <v>224</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>9</v>
@@ -4454,10 +4410,10 @@
         <v>226</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>9</v>
@@ -4486,10 +4442,10 @@
         <v>228</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>9</v>
@@ -4518,10 +4474,10 @@
         <v>230</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>192</v>
+        <v>9</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>9</v>
@@ -4550,10 +4506,10 @@
         <v>232</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>192</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>9</v>
@@ -4617,7 +4573,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>9</v>
@@ -4710,10 +4666,10 @@
         <v>242</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>9</v>
@@ -4745,7 +4701,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>9</v>
@@ -4838,10 +4794,10 @@
         <v>250</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>192</v>
+        <v>9</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>9</v>
@@ -4859,454 +4815,6 @@
         <v>9</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J115" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I117" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J117" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I119" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J119" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J120" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I121" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J121" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J122" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I123" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J123" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G125" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I125" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J125" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I126" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J126" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H127" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I127" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J127" s="5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/tl/S00028.MES.BIN.xlsx
+++ b/tl/S00028.MES.BIN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDC9643-41A7-44B1-995C-A9720AFF422C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DC8BEF-5B3E-42F7-BA7E-3D25CA4EA08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="11310" windowWidth="48240" windowHeight="19545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3165" yWindow="10155" windowWidth="45900" windowHeight="19845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S00028.MES.BIN" sheetId="1" r:id="rId1"/>

--- a/tl/S00028.MES.BIN.xlsx
+++ b/tl/S00028.MES.BIN.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DC8BEF-5B3E-42F7-BA7E-3D25CA4EA08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3EACFE-9D2B-40F4-9F1E-D5D0900A8576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="10155" windowWidth="45900" windowHeight="19845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="19005" windowWidth="54585" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S00028.MES.BIN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="253">
   <si>
     <t>Status</t>
   </si>
@@ -56,13 +56,13 @@
     <t>Female Voice</t>
   </si>
   <si>
-    <t>Female voice: "Ah, Touya-kun, good morning."</t>
+    <t>Ah, Touya-kun, good morning.</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>I was called out by a familiar voice when I came out of the station.</t>
+    <t>I'm called out by a familiar voice just as I leave the station.</t>
   </si>
   <si>
     <t>5</t>
@@ -71,13 +71,13 @@
     <t>Touya</t>
   </si>
   <si>
-    <t>Touya: "Oh, Yuki. Are you going to school today?"</t>
+    <t>Oh, Yuki. Are you going to school today?</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>I thought they said something about shooting today.</t>
+    <t>I remember her saying she had a shoot today.</t>
   </si>
   <si>
     <t>9</t>
@@ -89,127 +89,127 @@
     <t>Yuki</t>
   </si>
   <si>
-    <t>Yuki: "Yeah. The shooting for today got canceled. It seems like the production company is having some trouble, so it looks like this shooting won't be happening anymore."</t>
+    <t>Yeah. The shoot for today got cancelled. The production company seems to be having some kind of dispute, so it probably won't happen anytime soon.</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>She said it with a wry smile, talking about a serious matter.</t>
+    <t>She's smiling while talking about serious things, huh.</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>Touya: "...But that doesn't mean you had to come to school. You could've just stayed at home and taken it easy."</t>
-  </si>
-  <si>
-    <t>Touya is expressing his happiness to be able to see Yuki even though he had originally said he could have stayed at home and taken it easy. Yuki responds by saying that coming to school would be more exciting because you never know who you could meet. She then smiles and wraps her arm around Touya's, hinting that she's glad they got to meet each other. Touya then understands that Yuki was just wandering around the university, suggesting that they were meant to meet.</t>
+    <t>…But even so, you didn't have to come all the way to school. You could have just rested at home.</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>I said that a bit boastfully.</t>
+    <t>I try to act tough and say something like that.</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>Even though I'm really happy to be able to see Yuki.</t>
+    <t>In reality, I'm really happy to be able to see Yuki.</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>Yuki: "But that would be boring. If I come to school, I think who knows, I might meet someone..."</t>
+    <t>But that would have been boring. I came to school hoping that maybe I'd run into someone…</t>
+  </si>
+  <si>
+    <t>Could add "you know?"</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>Then Yuki smiles like a shoujo manga character,</t>
+    <t>Then Yuki smiles like a shoujo manga character and says,</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>Yuki: "See, I got to meet Touya-kun."</t>
+    <t>Hey, see, I got to meet you, Touya-kun.</t>
+  </si>
+  <si>
+    <t>See, I got to meet you, Touya-kun.</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>She says that and wraps her arm around mine.</t>
+    <t>She says this and then wraps her arm around mine.</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>"I see. That Yuki Morioka just came here to the university, to wander around aimlessly..."</t>
+    <t>I see. So, Yuki Morikawa came wandering over to a place of learning just to play around, huh...</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>Yuki: "No, I didn't say that!"</t>
-  </si>
-  <si>
-    <t>The translation is about Touya and Yuki coming to a university and stumbling across someone they knew. Yuki has denied what Touya said about her coming there to wander aimlessly, and she pulls his arm in an embarrassed manner. Touya then pulls her in and staggers around. Yuki then expresses that she thought she would be able to meet everyone, and they find one of the "everyone" before long. Touya then exclaims "Haru-ka!"</t>
+    <t>Geez, I never said anything like that.</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>Yuki embarrassedly pulled my arm playfully.</t>
+    <t>Yuki roughly pulls on my arm, making me feel embarrassed.</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t>I pulled her in and staggered around clumsily.</t>
+    <t>I clumsily stumble around, dragging Yuki along with me.</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>Yuki: "I thought I could meet everyone."</t>
+    <t>I thought I might be able to see everyone else too.</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>Everyone,</t>
+    <t>Everyone else,</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>hey...</t>
+    <t>right…</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>Before long, after entering the campus, we found one of the "everyone".</t>
+    <t>Shortly after entering the school grounds, we spot one of the "everyone" that Yuki mentioned.</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>Touya: "Haruka-!"</t>
+    <t>Haruka-!</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
-    <t>I call out to the person carrying the sports bag.</t>
+    <t>I call out to the figure carrying a sports bag.</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
-    <t>The person who notices my voice walks over here with a tired expression.</t>
+    <t>The person notices my voice and sluggishly makes their way over to us.</t>
   </si>
   <si>
     <t>49</t>
@@ -221,76 +221,79 @@
     <t>Haruka</t>
   </si>
   <si>
-    <t>Good morning. Long time no see, Yuki.</t>
+    <t>Good morning. Yuki, long time no see.</t>
   </si>
   <si>
     <t>51</t>
   </si>
   <si>
-    <t>Oh, I thought I just saw you at school the other day.</t>
+    <t>Has it been? I thought you came to school just the other day, though.</t>
+  </si>
+  <si>
+    <t>Maybe it has been. I thought you came to school just the other day, though.</t>
+  </si>
+  <si>
+    <t>Not really sure what the "na" in sokkana is in response to, so the edited version is based more on the how the voice line sounds</t>
   </si>
   <si>
     <t>53</t>
   </si>
   <si>
-    <t>The person laughing tiredly at Yuki is &lt;c4Haruka Kawashima&gt;.</t>
+    <t>The one who greets us with a sleepy voice and smile is &lt;c4Haruka Kawashima&gt;.</t>
   </si>
   <si>
     <t>55</t>
   </si>
   <si>
-    <t>She and I have been friends since kindergarten</t>
+    <t>We've been friends since kindergarten.</t>
   </si>
   <si>
     <t>57</t>
   </si>
   <si>
-    <t>Even though we're on good terms,&lt;pause&gt;</t>
+    <t>Friends,</t>
   </si>
   <si>
     <t>59</t>
   </si>
   <si>
-    <t>it's not like I'd feel guilty about Yuki</t>
+    <t>though, it's not like our relationship is something I feel guilty about when it comes to Yuki.</t>
   </si>
   <si>
     <t>61</t>
   </si>
   <si>
-    <t>People tend to forget gender when they spend too much time together, like when they walk around wearing the same clothes.</t>
-  </si>
-  <si>
-    <t>The passage reflects the idea that the speaker and Haruka have spent a lot of time together and it points out how the speaker's view of Haruka's gender has changed over time. Haruka gives a light-hearted comment about how familiar Yuki's face is, and Touya chides Haruka for not speaking confidently.</t>
+    <t>As humans, if we've known someone for too long, we tend to ignore their gender, like we're creatures walking around in the same clothes.</t>
   </si>
   <si>
     <t>63</t>
   </si>
   <si>
-    <t>We often ran around together since long ago and I've never been asked to join in any of the activities that girls usually do.</t>
+    <t>Haruka and I used to play together outside all the time, and not once did she ever force me to play any girl games.</t>
   </si>
   <si>
     <t>65</t>
   </si>
   <si>
-    <t>"It looks nice when Yuki is next to Touya, like they're two different people. Touya, you should come to school more often since you look so bored."</t>
+    <t>It's nice to see you with Yuki, Touya. You seem like a totally different person when you're around her. You always have this bored expression on your face, so maybe Yuki should come to school more often.</t>
   </si>
   <si>
     <t>67</t>
   </si>
   <si>
-    <t>What is she saying in that sleepy voice?</t>
+    <t>What is she saying in her sleepy voice?</t>
   </si>
   <si>
     <t>69</t>
   </si>
   <si>
-    <t>"Haruka, try to talk more confidently like a real athlete."</t>
+    <t>Haruka, as an athlete, you should speak more energetically.</t>
   </si>
   <si>
     <t>71</t>
   </si>
   <si>
-    <t>"Hmm?"</t>
+    <t>Hm?</t>
   </si>
   <si>
     <t>73</t>
@@ -302,28 +305,25 @@
     <t>75</t>
   </si>
   <si>
-    <t>Then she looks down at her sports bag,</t>
+    <t>Then she looks down at her sports bag.</t>
   </si>
   <si>
     <t>77</t>
   </si>
   <si>
-    <t>"My lunch is in there..."</t>
+    <t>There's a bento box in here…</t>
   </si>
   <si>
     <t>79</t>
   </si>
   <si>
-    <t>"You know it."</t>
-  </si>
-  <si>
-    <t>Should be "I don't know" (sort of pressuring Haruka)</t>
+    <t>How should I know that?</t>
   </si>
   <si>
     <t>81</t>
   </si>
   <si>
-    <t>"............"</t>
+    <t>…............</t>
   </si>
   <si>
     <t>83</t>
@@ -335,88 +335,85 @@
     <t>85</t>
   </si>
   <si>
-    <t>"Well, I have a class..."</t>
+    <t>Well, I have class now…</t>
   </si>
   <si>
     <t>87</t>
   </si>
   <si>
-    <t>As usual, she suddenly ended the conversation and walked away without looking back.</t>
+    <t>As usual, she abruptly ends the conversation and leaves without looking back.</t>
   </si>
   <si>
     <t>89</t>
   </si>
   <si>
-    <t>"Hey, has Haruka been doing something recently?"</t>
-  </si>
-  <si>
-    <t>Referring to her being a tennis player in the past</t>
+    <t>Hey, do you know if Haruka has been up to anything lately?</t>
   </si>
   <si>
     <t>91</t>
   </si>
   <si>
-    <t>"No, nothing has changed."</t>
+    <t>Nope. She's been the same as usual.</t>
   </si>
   <si>
     <t>93</t>
   </si>
   <si>
-    <t>I guess the thing I said about Haruka being an athlete caught her attention.</t>
+    <t>Haruka must have been bothered by me calling her an athlete earlier.</t>
   </si>
   <si>
     <t>95</t>
   </si>
   <si>
-    <t>She is an athlete, and has quite a lot of talent...</t>
+    <t>She's naturally athletic and is really talented, but…</t>
   </si>
   <si>
     <t>97</t>
   </si>
   <si>
-    <t>But that was until a certain unfortunate incident happened in high school, and she had to give up the tennis she loved so much.</t>
+    <t>That all changed in high school, after an unfortunate incident that forced her to give up her beloved tennis.</t>
   </si>
   <si>
     <t>99</t>
   </si>
   <si>
-    <t>Haruka had lost her older brother, a fellow tennis player, in an accident.</t>
+    <t>Haruka's older brother, who was also a tennis player, died in an accident.</t>
   </si>
   <si>
     <t>101</t>
   </si>
   <si>
-    <t>Probably since then.</t>
+    <t>I think it all started around that time.</t>
   </si>
   <si>
     <t>103</t>
   </si>
   <si>
-    <t>That's probably why Haruka turned into someone so unenthusiastic...</t>
+    <t>That's also why Haruka became such an unmotivated person….</t>
   </si>
   <si>
     <t>105</t>
   </si>
   <si>
-    <t>"It's okay, Haruka must have something she wants to do, so let her do what she likes."</t>
+    <t>It's alright, Haruka has something she wants to do, so let her do it as she likes.</t>
   </si>
   <si>
     <t>107</t>
   </si>
   <si>
-    <t>Just like usual, I smiled back at Yui, acting like I didn't mind.</t>
+    <t>I smile back at Yuki as if I'm not concerned, like I always do.</t>
   </si>
   <si>
     <t>109</t>
   </si>
   <si>
-    <t>Since there was still time until classes started, we decided to have a chat in the lounge.</t>
+    <t>Since we still have some time before class, we decide to talk a bit in the lounge.</t>
   </si>
   <si>
     <t>111</t>
   </si>
   <si>
-    <t>At the table, there was a familiar face amongst the guests.</t>
+    <t>And there's a familiar face sitting there.</t>
   </si>
   <si>
     <t>113</t>
@@ -425,25 +422,25 @@
     <t>Male Voice</t>
   </si>
   <si>
-    <t>"Oh, good morning. Ah, Yuki is here too."</t>
+    <t>Ah, good morning. Oh, Yuki's here too.</t>
   </si>
   <si>
     <t>115</t>
   </si>
   <si>
-    <t>Raising his face from the papers laid out on the table was &lt;c4Akira Nanase&gt;.</t>
+    <t>Raising his face from the report paper spread out on the table is &lt;c4Akira Nanase&gt;.</t>
   </si>
   <si>
     <t>117</t>
   </si>
   <si>
-    <t>He was also a close friend of ours, although not quite on the same level,&lt;pause&gt;</t>
+    <t>He's also a close friend of ours, and although he's not as close as Haruka,</t>
   </si>
   <si>
     <t>119</t>
   </si>
   <si>
-    <t>we had been in the same school from elementary to university for a long time.</t>
+    <t>we've been in the same school together since elementary, all the way up to university.</t>
   </si>
   <si>
     <t>121</t>
@@ -452,91 +449,97 @@
     <t>Akira</t>
   </si>
   <si>
-    <t>"...Submitting reports again today. Ah, sit down."</t>
+    <t>…We have to submit a report again today. Ah, have a seat.</t>
   </si>
   <si>
     <t>123</t>
   </si>
   <si>
-    <t>"Yeah."</t>
+    <t>Thanks.</t>
   </si>
   <si>
     <t>125</t>
   </si>
   <si>
-    <t>Yuki and I sit on the chairs that Akira recommended.</t>
+    <t>Yuki and I sit down on the chairs Akira offered us.</t>
   </si>
   <si>
     <t>127</t>
   </si>
   <si>
-    <t>"That's why I said to quit that professor's class. No matter how lenient attendance is, the reports are tough."</t>
+    <t>That's why I told you to avoid that professor's class. Even if you're not attending much, the reports are still tough.</t>
   </si>
   <si>
     <t>129</t>
   </si>
   <si>
-    <t>"But I didn't know that."</t>
+    <t>But, I didn't know that.</t>
   </si>
   <si>
     <t>131</t>
   </si>
   <si>
-    <t>Akira smiles as if troubled.</t>
+    <t>Akira gives a troubled smile.</t>
   </si>
   <si>
     <t>133</t>
   </si>
   <si>
-    <t>When he has a gentle face like that, he doesn't look like a guy.</t>
+    <t>When he shows such a kind face, he looks almost like a girl.</t>
   </si>
   <si>
     <t>135</t>
   </si>
   <si>
-    <t>In terms of being gender-neutral, he is quite similar to Haruka.</t>
+    <t>In terms of androgyny, he's quite similar to Haruka.</t>
   </si>
   <si>
     <t>137</t>
   </si>
   <si>
-    <t>I know that Akira is, unlike Haruka, someone who is conscious of a certain person of the opposite sex in a healthy way. (I don't think anyone will believe me though).</t>
+    <t>Of course, Akira (unlike Haruka) is a healthy person who's aware of a certain gender. (Though no one seems to believe it.)</t>
   </si>
   <si>
     <t>139</t>
   </si>
   <si>
-    <t>"..It's alright. I'll take a break."</t>
+    <t>…Never mind. Let's take a break.</t>
   </si>
   <si>
     <t>141</t>
   </si>
   <si>
-    <t>"I'm going to buy a drink, do Yuki and Fuyumi need anything?"</t>
+    <t>I'm going to buy some drinks. Yuki or Touya, do either of you want anything?</t>
   </si>
   <si>
     <t>143</t>
   </si>
   <si>
-    <t>When he got up, that "certain" person entered the conversation room.</t>
+    <t>When he stands up, that "certain someone" enters the lounge.</t>
+  </si>
+  <si>
+    <t>When he stands up, that "certain someone" enters the discussion room.</t>
   </si>
   <si>
     <t>145</t>
   </si>
   <si>
-    <t>"Ah, Misaki-san."</t>
+    <t>Hey, Misaki-san.</t>
+  </si>
+  <si>
+    <t>Ah, Misaki-san.</t>
   </si>
   <si>
     <t>147</t>
   </si>
   <si>
-    <t>I called out to her.</t>
+    <t>I call out to her.</t>
   </si>
   <si>
     <t>149</t>
   </si>
   <si>
-    <t>When the girl noticed that, she approached the table.</t>
+    <t>The woman who notices us approaches the table.</t>
   </si>
   <si>
     <t>151</t>
@@ -548,16 +551,13 @@
     <t>Misaki</t>
   </si>
   <si>
-    <t>"Ah, so it was the Fujii-kun group after all. I noticed someone who looked like them while walking outside, so I came in."</t>
-  </si>
-  <si>
-    <t>The naming "Fujii-kun" is correct.</t>
+    <t>Oh, so it was you guys after all, Fujii-kun. I thought I saw someone who looked like you while I was out on a walk, so I came in.</t>
   </si>
   <si>
     <t>153</t>
   </si>
   <si>
-    <t>"Yuki is here too, today. Good morning, Yuki."</t>
+    <t>Yuki-chan is here today, too, huh? Good morning, Yuki-chan.</t>
   </si>
   <si>
     <t>155</t>
@@ -569,208 +569,211 @@
     <t>157</t>
   </si>
   <si>
-    <t>Her name is</t>
+    <t>This woman is,</t>
   </si>
   <si>
     <t>159</t>
   </si>
   <si>
-    <t>&lt;c4 Sawakura Misaki&gt;.</t>
+    <t>&lt;c4Misaki Sawakura&gt;.</t>
   </si>
   <si>
     <t>161</t>
   </si>
   <si>
-    <t>She's our senior from last year.</t>
+    <t>She's our senpai by one year.</t>
   </si>
   <si>
     <t>163</t>
   </si>
   <si>
-    <t>Misaki is also from the same school, Kuragasaki Gakuen, as me, which means that everyone here (including those not present) is from the same school.</t>
+    <t>Misaki-san, like me, is also a graduate of Hotaru Gasaki High School, so everyone here (including those who aren't) is from the same school.</t>
   </si>
   <si>
     <t>165</t>
   </si>
   <si>
-    <t>"Ah, sit down Misaki-san. I'm going to buy a drink, do you need anything, senpai?"</t>
+    <t>Ah, sit down Misaki-san. I'm going to buy drinks; do you want anything, senpai?</t>
   </si>
   <si>
     <t>167</t>
   </si>
   <si>
-    <t>Listening to everyone's requests, Akira goes to the vending machine corner.</t>
+    <t>After listening to everyone's requests, Akira goes over to the vending machine in the corner.</t>
   </si>
   <si>
     <t>169</t>
   </si>
   <si>
-    <t>In fact, this Misaki was the only woman that Akira had ever liked.</t>
-  </si>
-  <si>
-    <t>Confirm was vs is</t>
+    <t>Actually, Misaki-san is the only woman that Akira has ever fallen in love with.</t>
   </si>
   <si>
     <t>171</t>
   </si>
   <si>
-    <t>But Akira was so good at pretending not to care, that no one had ever known about it until now.</t>
+    <t>However, Akira is so good at pretending to not care that no one has ever known about it.</t>
   </si>
   <si>
     <t>173</t>
   </si>
   <si>
-    <t>I think Yuki, who is talking to the person next to me, has not noticed yet.</t>
+    <t>I think Yuki, who was talking next to him, probably hasn't noticed either.</t>
   </si>
   <si>
     <t>175</t>
   </si>
   <si>
-    <t>I remember being very surprised when I was in high school and someone confessed to me quietly.</t>
+    <t>I remember being deeply shocked when he quietly confessed it to me during high school.</t>
   </si>
   <si>
     <t>177</t>
   </si>
   <si>
-    <t>Even before knowing that the other person was my senior,</t>
+    <t>Even before knowing she was his senpai,</t>
   </si>
   <si>
     <t>179</t>
   </si>
   <si>
-    <t>I was surprised that this man could fall in love with a woman.</t>
+    <t>I wondered if it was even possible for this man to fall in love with a woman.</t>
   </si>
   <si>
     <t>181</t>
   </si>
   <si>
-    <t>"Misaki, do you have classes today?"</t>
+    <t>Misaki-san, do you have class today?</t>
   </si>
   <si>
     <t>183</t>
   </si>
   <si>
-    <t>I have classes in the afternoon. I have to submit reports for my required classes and general classes before the due date, so I thought I would finish doing research at the library beforehand."</t>
+    <t>I do in the afternoon. I don't want the deadlines for my required and general education reports to overlap, so I thought I'd finish my research in the library before class.</t>
   </si>
   <si>
     <t>185</t>
   </si>
   <si>
-    <t>Yuki nods as if in admiration.</t>
+    <t>Yuki nods in admiration.</t>
   </si>
   <si>
     <t>187</t>
   </si>
   <si>
-    <t>Ever since high school, Yuki has been a big fan of Misaki-san and has often been taught things like cooking by her, so she respects Misaki-san in every way.</t>
+    <t>Yuki has admired Misaki-san since high school and has been taught things like how to cook by her. She respects everything about Misaki-san.</t>
+  </si>
+  <si>
+    <t>Yuki has been a fan of Misaki-san since high school. She was often taught things like how to cook, and has respected everything about her since.</t>
   </si>
   <si>
     <t>189</t>
   </si>
   <si>
-    <t>Despite Misaki-san having a more subdued and introverted personality than Yuki, she still managed to be liked by everyone and there were actually core fans.</t>
+    <t>Even though she was more subdued and reserved than Yuki, Misaki-san was liked by everyone, and there were actually devoted fans.</t>
   </si>
   <si>
     <t>191</t>
   </si>
   <si>
-    <t>In particular, Yuki who was treated kindly was envied by the other Misaki-san fans of the same sex.</t>
+    <t>Yuki in particular, who was treated especially kindly by her, was envied by Misaki-san's other female fans.</t>
   </si>
   <si>
     <t>193</t>
   </si>
   <si>
-    <t>...though they will never know that.</t>
+    <t>…But of course, the two of them would never know that.</t>
   </si>
   <si>
     <t>195</t>
   </si>
   <si>
-    <t>Akira brings a can of juice and put it on the tray.</t>
+    <t>Akira brings back some canned drinks on a tray.</t>
   </si>
   <si>
     <t>197</t>
   </si>
   <si>
-    <t>"Thank you..."</t>
+    <t>Thank you…</t>
   </si>
   <si>
     <t>199</t>
   </si>
   <si>
-    <t>"Oh, Nanase-kun was in the middle of his report too."</t>
+    <t>Ah, Nanase-kun, you were also in the middle of a report.</t>
   </si>
   <si>
     <t>201</t>
   </si>
   <si>
-    <t>"...Did I disturb you?"</t>
+    <t>…Did I interrupt you?</t>
   </si>
   <si>
     <t>203</t>
   </si>
   <si>
-    <t>"No way. I was thinking of taking a break. It was just in time since Fuyumi and the others had also come."</t>
+    <t>No way. I was just taking a break. It's perfect timing that Touya and Yuki came, too.</t>
+  </si>
+  <si>
+    <t>Add Yuki</t>
   </si>
   <si>
     <t>205</t>
   </si>
   <si>
-    <t>Akira's expression remained unchanged as he spoke like an honor student, yet I could tell he was flustered by Misaki's smile.</t>
+    <t>Although Akira says this like a model student without changing his expression, I could tell that he's completely smitten by Misaki-san's smile.</t>
   </si>
   <si>
     <t>207</t>
   </si>
   <si>
-    <t>I softly chuckle.</t>
+    <t>I quietly chuckle.</t>
   </si>
   <si>
     <t>209</t>
   </si>
   <si>
-    <t>"But, thanks to the book I borrowed the other day, this report was pretty easy. Can I borrow a few more?"</t>
+    <t>But, thanks to the book I borrowed the other day, this report was pretty easy. Can I borrow a few more?</t>
   </si>
   <si>
     <t>211</t>
   </si>
   <si>
-    <t>Akira points to the two books on the table.</t>
+    <t>Akira points to two books on the table.</t>
   </si>
   <si>
     <t>213</t>
   </si>
   <si>
-    <t>I see.</t>
+    <t>I get it now.</t>
   </si>
   <si>
     <t>215</t>
   </si>
   <si>
-    <t>"Yeah, sure. If there's something you don't understand, I think I can help a bit."</t>
+    <t>Sure, go ahead. If there's anything you don't understand, I think I can help a bit.</t>
   </si>
   <si>
     <t>217</t>
   </si>
   <si>
-    <t>Akira: "Thank you, Misaki-san."</t>
+    <t>Thanks, Misaki-san.</t>
   </si>
   <si>
     <t>219</t>
   </si>
   <si>
-    <t>Misaki-san is always so kind to everyone.</t>
+    <t>Misaki-san is kind to everyone in this way.</t>
   </si>
   <si>
     <t>221</t>
   </si>
   <si>
-    <t>Of course, to me as well.</t>
+    <t>Of course, that includes me as well.</t>
   </si>
   <si>
     <t>223</t>
   </si>
   <si>
-    <t>In the end, we ended up taking a break from Akira's report work and chatted away in the discussion room for a while.</t>
+    <t>In the end, we interrupted Akira's report work and chatted in the lounge for a while.</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1195,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1449,7 +1454,7 @@
         <v>28</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>9</v>
@@ -1463,22 +1468,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>9</v>
@@ -1495,22 +1500,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>9</v>
@@ -1527,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>22</v>
@@ -1542,10 +1547,10 @@
         <v>9</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>9</v>
@@ -1603,10 +1608,10 @@
         <v>9</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>9</v>
@@ -1623,7 +1628,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -1638,7 +1643,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>9</v>
@@ -1655,7 +1660,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
@@ -1670,7 +1675,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>9</v>
@@ -1687,7 +1692,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>22</v>
@@ -1702,10 +1707,10 @@
         <v>9</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>9</v>
@@ -2051,13 +2056,13 @@
         <v>9</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>9</v>
@@ -2071,7 +2076,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -2086,7 +2091,7 @@
         <v>9</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>9</v>
@@ -2103,7 +2108,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>9</v>
@@ -2118,7 +2123,7 @@
         <v>9</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>9</v>
@@ -2135,7 +2140,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -2150,7 +2155,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>9</v>
@@ -2167,7 +2172,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>9</v>
@@ -2182,7 +2187,7 @@
         <v>9</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>9</v>
@@ -2199,7 +2204,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -2214,10 +2219,10 @@
         <v>9</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>9</v>
@@ -2231,7 +2236,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>9</v>
@@ -2246,7 +2251,7 @@
         <v>9</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>9</v>
@@ -2263,7 +2268,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>66</v>
@@ -2278,7 +2283,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>9</v>
@@ -2295,7 +2300,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>9</v>
@@ -2310,7 +2315,7 @@
         <v>9</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>9</v>
@@ -2327,7 +2332,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>10</v>
@@ -2342,7 +2347,7 @@
         <v>9</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>9</v>
@@ -2359,7 +2364,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>66</v>
@@ -2374,7 +2379,7 @@
         <v>9</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>9</v>
@@ -2391,7 +2396,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -2406,7 +2411,7 @@
         <v>9</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>9</v>
@@ -2423,7 +2428,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>9</v>
@@ -2438,7 +2443,7 @@
         <v>9</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>9</v>
@@ -2455,7 +2460,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>66</v>
@@ -2470,7 +2475,7 @@
         <v>9</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>9</v>
@@ -2487,7 +2492,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>10</v>
@@ -2502,10 +2507,10 @@
         <v>9</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>9</v>
@@ -2665,7 +2670,7 @@
         <v>110</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>9</v>
@@ -2679,7 +2684,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>10</v>
@@ -2694,7 +2699,7 @@
         <v>9</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>9</v>
@@ -2711,22 +2716,22 @@
         <v>9</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>9</v>
@@ -2743,22 +2748,22 @@
         <v>9</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>9</v>
@@ -2775,22 +2780,22 @@
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>9</v>
@@ -2807,22 +2812,22 @@
         <v>9</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>9</v>
@@ -2839,22 +2844,22 @@
         <v>9</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>9</v>
@@ -2871,22 +2876,22 @@
         <v>9</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>9</v>
@@ -2903,7 +2908,7 @@
         <v>9</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>10</v>
@@ -2918,7 +2923,7 @@
         <v>9</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>9</v>
@@ -2935,22 +2940,22 @@
         <v>9</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>9</v>
@@ -2967,22 +2972,22 @@
         <v>9</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>9</v>
@@ -2999,22 +3004,22 @@
         <v>9</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>9</v>
@@ -3031,22 +3036,22 @@
         <v>9</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>9</v>
@@ -3063,22 +3068,22 @@
         <v>9</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>9</v>
@@ -3095,22 +3100,22 @@
         <v>9</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>9</v>
@@ -3127,22 +3132,22 @@
         <v>9</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>9</v>
@@ -3159,22 +3164,22 @@
         <v>9</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>9</v>
@@ -3191,7 +3196,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>22</v>
@@ -3206,7 +3211,7 @@
         <v>9</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>9</v>
@@ -3223,22 +3228,22 @@
         <v>9</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>9</v>
@@ -3255,7 +3260,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>10</v>
@@ -3270,7 +3275,7 @@
         <v>9</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>9</v>
@@ -3287,22 +3292,22 @@
         <v>9</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>9</v>
@@ -3319,22 +3324,22 @@
         <v>9</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>9</v>
@@ -3351,22 +3356,22 @@
         <v>9</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>9</v>
@@ -3383,22 +3388,22 @@
         <v>9</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>9</v>
@@ -3415,22 +3420,22 @@
         <v>9</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>9</v>
@@ -3447,22 +3452,22 @@
         <v>9</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>9</v>
@@ -3479,22 +3484,22 @@
         <v>9</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>9</v>
@@ -3511,19 +3516,19 @@
         <v>9</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>167</v>
@@ -3555,10 +3560,10 @@
         <v>9</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>9</v>
@@ -3575,7 +3580,7 @@
         <v>9</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>9</v>
@@ -3590,7 +3595,7 @@
         <v>9</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>9</v>
@@ -3607,7 +3612,7 @@
         <v>9</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -3622,7 +3627,7 @@
         <v>9</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>9</v>
@@ -3639,13 +3644,13 @@
         <v>9</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>9</v>
@@ -3654,10 +3659,10 @@
         <v>9</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
       <c r="I77" s="5" t="s">
         <v>9</v>
@@ -3674,10 +3679,10 @@
         <v>179</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>9</v>
@@ -3869,7 +3874,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>9</v>
@@ -3945,7 +3950,7 @@
         <v>196</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>197</v>
+        <v>9</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>9</v>
@@ -3959,22 +3964,22 @@
         <v>9</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>9</v>
@@ -3991,22 +3996,22 @@
         <v>9</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>9</v>
@@ -4023,22 +4028,22 @@
         <v>9</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>9</v>
@@ -4055,22 +4060,22 @@
         <v>9</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>9</v>
@@ -4087,22 +4092,22 @@
         <v>9</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>9</v>
@@ -4119,7 +4124,7 @@
         <v>9</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>22</v>
@@ -4134,7 +4139,7 @@
         <v>9</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>9</v>
@@ -4151,22 +4156,22 @@
         <v>9</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>9</v>
@@ -4183,22 +4188,22 @@
         <v>9</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>9</v>
@@ -4215,19 +4220,19 @@
         <v>9</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>215</v>
@@ -4378,10 +4383,10 @@
         <v>224</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>9</v>
@@ -4410,10 +4415,10 @@
         <v>226</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>9</v>
@@ -4442,10 +4447,10 @@
         <v>228</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>9</v>
@@ -4477,7 +4482,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>9</v>
@@ -4489,7 +4494,7 @@
         <v>231</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="I103" s="5" t="s">
         <v>9</v>
@@ -4503,7 +4508,7 @@
         <v>9</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -4518,7 +4523,7 @@
         <v>9</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>9</v>
@@ -4535,7 +4540,7 @@
         <v>9</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>9</v>
@@ -4550,7 +4555,7 @@
         <v>9</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>9</v>
@@ -4567,13 +4572,13 @@
         <v>9</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>9</v>
@@ -4582,7 +4587,7 @@
         <v>9</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>9</v>
@@ -4599,7 +4604,7 @@
         <v>9</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>9</v>
@@ -4614,7 +4619,7 @@
         <v>9</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>9</v>
@@ -4631,7 +4636,7 @@
         <v>9</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -4646,7 +4651,7 @@
         <v>9</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>9</v>
@@ -4663,13 +4668,13 @@
         <v>9</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>9</v>
@@ -4678,7 +4683,7 @@
         <v>9</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>9</v>
@@ -4695,13 +4700,13 @@
         <v>9</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>9</v>
@@ -4710,7 +4715,7 @@
         <v>9</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>9</v>
@@ -4727,7 +4732,7 @@
         <v>9</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>9</v>
@@ -4742,7 +4747,7 @@
         <v>9</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>9</v>
@@ -4759,7 +4764,7 @@
         <v>9</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -4774,7 +4779,7 @@
         <v>9</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>9</v>
@@ -4791,7 +4796,7 @@
         <v>9</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>9</v>
@@ -4806,7 +4811,7 @@
         <v>9</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>9</v>
